--- a/Reserve Templates/DOI_Headings.xlsx
+++ b/Reserve Templates/DOI_Headings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\repos\doi-parser\Reserve Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\repos\Code Repos\doi-parser\Reserve Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCB5CE4-C3F9-471B-BDC2-FC7BA964B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772E889-B927-4CF6-9600-71FB6B9C2345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F51FBE7E-4F39-4FFA-A863-43308A4DAF37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F51FBE7E-4F39-4FFA-A863-43308A4DAF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Workroom ID</t>
   </si>
@@ -117,6 +117,27 @@
   </si>
   <si>
     <t>sm:Rights Statement</t>
+  </si>
+  <si>
+    <t>TRIS</t>
+  </si>
+  <si>
+    <t>OCLC</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>Copyright Date</t>
+  </si>
+  <si>
+    <t>Date Captured</t>
+  </si>
+  <si>
+    <t>Date Modified</t>
+  </si>
+  <si>
+    <t>Personal Publisher(s)</t>
   </si>
 </sst>
 </file>
@@ -468,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C02AE1A-39EC-4856-B987-9A99872DB210}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,21 +512,25 @@
     <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="11.42578125" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,39 +577,60 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
     </row>
